--- a/tspi/ciclo-2/task2/20106065.xlsx
+++ b/tspi/ciclo-2/task2/20106065.xlsx
@@ -155,32 +155,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.69019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="2.82352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.3529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="2.82352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="20.8470588235294"/>
-    <col collapsed="false" hidden="false" max="1005" min="6" style="2" width="12.3529411764706"/>
-    <col collapsed="false" hidden="false" max="1006" min="1006" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="1008" min="1007" style="0" width="12.3529411764706"/>
-    <col collapsed="false" hidden="false" max="1009" min="1009" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="1010" min="1010" style="0" width="12.3529411764706"/>
-    <col collapsed="false" hidden="false" max="1011" min="1011" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="1014" min="1012" style="0" width="12.3529411764706"/>
-    <col collapsed="false" hidden="false" max="1015" min="1015" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="1017" min="1016" style="0" width="12.3529411764706"/>
-    <col collapsed="false" hidden="false" max="1018" min="1018" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="1019" min="1019" style="0" width="12.3529411764706"/>
-    <col collapsed="false" hidden="false" max="1021" min="1020" style="0" width="8.72941176470588"/>
-    <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="12.3529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.70980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="2.83921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="2.83921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.9450980392157"/>
+    <col collapsed="false" hidden="false" max="1005" min="6" style="2" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1006" min="1006" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1008" min="1007" style="0" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1009" min="1009" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1010" min="1010" style="0" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1011" min="1011" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1014" min="1012" style="0" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1015" min="1015" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1017" min="1016" style="0" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1018" min="1018" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1019" min="1019" style="0" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1021" min="1020" style="0" width="8.77254901960784"/>
+    <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.77254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -192,6 +192,18 @@
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <f aca="false">36/60</f>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
